--- a/template.xlsx
+++ b/template.xlsx
@@ -1,18 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dorgpay\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F687D16A-E7EE-4353-8B25-9E29450426EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>Teams</t>
   </si>
@@ -138,188 +157,55 @@
   </si>
   <si>
     <t>Cardinals</t>
-  </si>
-  <si>
-    <t>1 (9-7)</t>
-  </si>
-  <si>
-    <t>(4-3) 1</t>
-  </si>
-  <si>
-    <t>VS.</t>
-  </si>
-  <si>
-    <t>0 (2-4),(3-7),(4-10)</t>
-  </si>
-  <si>
-    <t>(8-6),(3-7),(17-7),(3-4),(6-5) 3</t>
-  </si>
-  <si>
-    <t>0 (7-9)</t>
-  </si>
-  <si>
-    <t>(3-4) 0</t>
-  </si>
-  <si>
-    <t>4 (3-2),(4-5),(4-2),(5-10),(1-5),(4-2),(3-1)</t>
-  </si>
-  <si>
-    <t>(5-3),(2-1),(4-7),(2-3),(0-1),(6-8) 2</t>
-  </si>
-  <si>
-    <t>3 (4,2),(7-3),(10-4)</t>
-  </si>
-  <si>
-    <t>(6-8),(7-3),(7-17),(4-3),(5-6) 2</t>
-  </si>
-  <si>
-    <t>(4-1),(6-9),(1-3),(1-3),(4-6) 1</t>
-  </si>
-  <si>
-    <t>4 (1-4),(9-6),(3-1),(3-1),(6-4)</t>
-  </si>
-  <si>
-    <t>0 (2-6),(4-7),(1-3)</t>
-  </si>
-  <si>
-    <t>(3-4),(6-3),(0-9),(2-8) 1</t>
-  </si>
-  <si>
-    <t>3 (2-3),(5-4),(2-4),(10-5),(5-1),(2-4),(1-3)</t>
-  </si>
-  <si>
-    <t>(3-5),(1-2),(7-4),(3-2),(1-0),(8-6) 4</t>
-  </si>
-  <si>
-    <t>3 (6-2),(7-4),(3-1)</t>
-  </si>
-  <si>
-    <t>(4-3),(3-6),(9-0),(8-2) 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
-      <b/>
-      <color rgb="FFBD3039"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <color theme="0"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <color rgb="FFFD5B1E"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <color rgb="FFFFC52F"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <color rgb="FFBA0C2F"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <color rgb="FFEB6E1F"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0D2B56"/>
-        <bgColor rgb="FF0D2B56"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF005A9C"/>
-        <bgColor rgb="FF005A9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF132448"/>
-        <bgColor rgb="FF132448"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC41E3A"/>
-        <bgColor rgb="FFC41E3A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF092C5C"/>
-        <bgColor rgb="FF092C5C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor theme="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF12284B"/>
-        <bgColor rgb="FF12284B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0C2340"/>
-        <bgColor rgb="FF0C2340"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF002D62"/>
-        <bgColor rgb="FF002D62"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
-    <border/>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -333,159 +219,45 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="8" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="9" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="10" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="9353550" cy="8458200"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -675,20 +447,23 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -726,7 +501,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -737,23 +512,23 @@
         <v>14</v>
       </c>
       <c r="D2" s="4">
-        <v>9.675</v>
+        <v>9.6750000000000007</v>
       </c>
       <c r="E2" s="4">
-        <v>9.8275862069</v>
+        <v>9.8275862068999995</v>
       </c>
       <c r="F2" s="4">
-        <v>10.524</v>
+        <v>10.523999999999999</v>
       </c>
       <c r="G2" s="4">
-        <v>9.66666666667</v>
+        <v>9.6666666666700003</v>
       </c>
       <c r="H2" s="4">
-        <v>11.7857142857</v>
+        <v>11.785714285699999</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="6">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>15</v>
@@ -762,7 +537,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
@@ -773,10 +548,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="4">
-        <v>10.0125</v>
+        <v>10.012499999999999</v>
       </c>
       <c r="E3" s="4">
-        <v>11.4310344828</v>
+        <v>11.431034482799999</v>
       </c>
       <c r="F3" s="4">
         <v>10.488</v>
@@ -789,7 +564,7 @@
       </c>
       <c r="J3" s="7"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -800,22 +575,22 @@
         <v>22</v>
       </c>
       <c r="D4" s="4">
-        <v>9.7875</v>
+        <v>9.7874999999999996</v>
       </c>
       <c r="E4" s="4">
         <v>11.3275862069</v>
       </c>
       <c r="F4" s="4">
-        <v>9.888</v>
+        <v>9.8879999999999999</v>
       </c>
       <c r="G4" s="4">
-        <v>7.16666666667</v>
+        <v>7.1666666666700003</v>
       </c>
       <c r="H4" s="4">
-        <v>14.1428571429</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>14.142857142900001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
@@ -829,19 +604,19 @@
         <v>9.15</v>
       </c>
       <c r="E5" s="4">
-        <v>12.3620689655</v>
+        <v>12.362068965500001</v>
       </c>
       <c r="F5" s="4">
-        <v>10.344</v>
+        <v>10.343999999999999</v>
       </c>
       <c r="G5" s="4">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="H5" s="4">
-        <v>11.5285714286</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>11.528571428599999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -855,19 +630,19 @@
         <v>9.15</v>
       </c>
       <c r="E6" s="4">
-        <v>12.2586206897</v>
+        <v>12.258620689700001</v>
       </c>
       <c r="F6" s="4">
         <v>11.388</v>
       </c>
       <c r="G6" s="4">
-        <v>10.3333333333</v>
+        <v>10.333333333300001</v>
       </c>
       <c r="H6" s="4">
         <v>10.5857142857</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
@@ -878,7 +653,7 @@
         <v>31</v>
       </c>
       <c r="D7" s="4">
-        <v>9.075</v>
+        <v>9.0749999999999993</v>
       </c>
       <c r="E7" s="4">
         <v>11.4827586207</v>
@@ -887,13 +662,13 @@
         <v>10.596</v>
       </c>
       <c r="G7" s="4">
-        <v>11.6666666667</v>
+        <v>11.666666666699999</v>
       </c>
       <c r="H7" s="4">
         <v>12.3428571429</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -904,22 +679,22 @@
         <v>33</v>
       </c>
       <c r="D8" s="4">
-        <v>8.7375</v>
+        <v>8.7375000000000007</v>
       </c>
       <c r="E8" s="4">
-        <v>10.0344827586</v>
+        <v>10.034482758599999</v>
       </c>
       <c r="F8" s="4">
         <v>10.8</v>
       </c>
       <c r="G8" s="4">
-        <v>9.83333333333</v>
+        <v>9.8333333333299997</v>
       </c>
       <c r="H8" s="4">
         <v>10.9285714286</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>34</v>
       </c>
@@ -930,7 +705,7 @@
         <v>36</v>
       </c>
       <c r="D9" s="4">
-        <v>8.8875</v>
+        <v>8.8874999999999993</v>
       </c>
       <c r="E9" s="4">
         <v>11.4827586207</v>
@@ -939,13 +714,13 @@
         <v>10.512</v>
       </c>
       <c r="G9" s="4">
-        <v>8.66666666667</v>
+        <v>8.6666666666700003</v>
       </c>
       <c r="H9" s="4">
-        <v>9.12857142857</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>9.1285714285699999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>37</v>
       </c>
@@ -956,22 +731,22 @@
         <v>39</v>
       </c>
       <c r="D10" s="4">
-        <v>9.3375</v>
+        <v>9.3375000000000004</v>
       </c>
       <c r="E10" s="4">
-        <v>12.4655172414</v>
+        <v>12.465517241400001</v>
       </c>
       <c r="F10" s="4">
         <v>11.112</v>
       </c>
       <c r="G10" s="4">
-        <v>11.6666666667</v>
+        <v>11.666666666699999</v>
       </c>
       <c r="H10" s="4">
-        <v>11.6142857143</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>11.614285714299999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -985,210 +760,23 @@
         <v>9.15</v>
       </c>
       <c r="E11" s="4">
-        <v>10.2413793103</v>
+        <v>10.241379310299999</v>
       </c>
       <c r="F11" s="4">
         <v>10.224</v>
       </c>
       <c r="G11" s="4">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="H11" s="4">
         <v>11.1857142857</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="3" max="3" width="16.86"/>
-    <col customWidth="1" min="4" max="4" width="35.14"/>
-    <col customWidth="1" min="6" max="6" width="27.86"/>
-    <col customWidth="1" min="7" max="7" width="26.0"/>
-  </cols>
-  <sheetData>
-    <row r="2">
-      <c r="A2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="18"/>
-      <c r="C5" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="20"/>
-    </row>
-    <row r="6">
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-    </row>
-    <row r="7">
-      <c r="B7" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="C8" s="18"/>
-      <c r="E8" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="20"/>
-    </row>
-    <row r="9">
-      <c r="C9" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="C10" s="18"/>
-      <c r="G10" s="20"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-    </row>
-    <row r="13">
-      <c r="B13" s="18"/>
-      <c r="C13" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="20"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="18"/>
-      <c r="H14" s="20"/>
-    </row>
-    <row r="15">
-      <c r="B15" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="H15" s="23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>